--- a/Energy Consumption20.xlsx
+++ b/Energy Consumption20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.554581267957933</v>
+        <v>1.182783223950844</v>
       </c>
       <c r="C2" t="n">
-        <v>4.932884353252555</v>
+        <v>0.588493076750093</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.64432284664186</v>
+        <v>6.267955951194165</v>
       </c>
       <c r="C3" t="n">
-        <v>9.588014817910103</v>
+        <v>1.439892760547884</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.76201482665492</v>
+        <v>17.99679854773782</v>
       </c>
       <c r="C4" t="n">
-        <v>14.35097088955914</v>
+        <v>2.009086801263544</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.17228471666538</v>
+        <v>24.6241679219543</v>
       </c>
       <c r="C5" t="n">
-        <v>19.22166146386936</v>
+        <v>3.209923369010773</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.82275630167528</v>
+        <v>25.64548164713591</v>
       </c>
       <c r="C6" t="n">
-        <v>24.04600430865093</v>
+        <v>3.967170290534838</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.70313397360753</v>
+        <v>28.78439610034238</v>
       </c>
       <c r="C7" t="n">
-        <v>28.74476533700781</v>
+        <v>4.818625260531809</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.49896235329353</v>
+        <v>29.06193199555131</v>
       </c>
       <c r="C8" t="n">
-        <v>33.23808739846219</v>
+        <v>5.615194114720508</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17.10561208538558</v>
+        <v>29.59465251538218</v>
       </c>
       <c r="C9" t="n">
-        <v>38.0576730046367</v>
+        <v>6.344054604464469</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.13129821042433</v>
+        <v>29.90179677752234</v>
       </c>
       <c r="C10" t="n">
-        <v>42.94994033213769</v>
+        <v>7.491534512736186</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.21574402688701</v>
+        <v>31.2870511541718</v>
       </c>
       <c r="C11" t="n">
-        <v>47.47430042026411</v>
+        <v>8.155531395671357</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.14024985106949</v>
+        <v>32.37159994294669</v>
       </c>
       <c r="C12" t="n">
-        <v>51.91735803465211</v>
+        <v>9.242282652153332</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30.53689644280974</v>
+        <v>32.46151952625841</v>
       </c>
       <c r="C13" t="n">
-        <v>56.37815648313435</v>
+        <v>9.909265447822202</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>31.6694799925059</v>
+        <v>32.54294375292982</v>
       </c>
       <c r="C14" t="n">
-        <v>60.81251771718416</v>
+        <v>10.33839816564545</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>32.85997140014616</v>
+        <v>35.20062906453335</v>
       </c>
       <c r="C15" t="n">
-        <v>65.93667563719299</v>
+        <v>11.63782164517427</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>36.49767160199528</v>
+        <v>36.64645947817002</v>
       </c>
       <c r="C16" t="n">
-        <v>71.49538936550701</v>
+        <v>12.30629773594152</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>36.86717376485971</v>
+        <v>39.33688517122047</v>
       </c>
       <c r="C17" t="n">
-        <v>75.94277178872129</v>
+        <v>12.86714603728094</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>39.14936448507734</v>
+        <v>40.20959427425738</v>
       </c>
       <c r="C18" t="n">
-        <v>80.62044471003595</v>
+        <v>13.54475126136632</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>43.29942498721737</v>
+        <v>43.58924743161049</v>
       </c>
       <c r="C19" t="n">
-        <v>85.44886721648726</v>
+        <v>14.1915518659535</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.23678962603602</v>
+        <v>45.3776442754611</v>
       </c>
       <c r="C20" t="n">
-        <v>90.22287762403752</v>
+        <v>15.1705662208524</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>46.32768862317371</v>
+        <v>45.57123167624007</v>
       </c>
       <c r="C21" t="n">
-        <v>94.63826483231239</v>
+        <v>15.84872914879021</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>47.8008788379481</v>
+        <v>47.72028453017151</v>
       </c>
       <c r="C22" t="n">
-        <v>99.62777474376747</v>
+        <v>16.436848907948</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>49.47590394567255</v>
+        <v>48.07404658882837</v>
       </c>
       <c r="C23" t="n">
-        <v>104.4899788829811</v>
+        <v>17.44086136674384</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>51.32044710265358</v>
+        <v>53.24798226570667</v>
       </c>
       <c r="C24" t="n">
-        <v>109.2886240375312</v>
+        <v>18.04963291163811</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>52.44628366767634</v>
+        <v>54.10847605624152</v>
       </c>
       <c r="C25" t="n">
-        <v>113.9548264300259</v>
+        <v>19.30505671579645</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>54.08298644182577</v>
+        <v>57.12810609209131</v>
       </c>
       <c r="C26" t="n">
-        <v>119.2233595198568</v>
+        <v>20.11047165871832</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>55.09104775413236</v>
+        <v>57.28873318221724</v>
       </c>
       <c r="C27" t="n">
-        <v>123.6802418191736</v>
+        <v>20.96713294172871</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>57.45245676962446</v>
+        <v>58.27719513929562</v>
       </c>
       <c r="C28" t="n">
-        <v>128.1915811005457</v>
+        <v>21.81332224797398</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>60.72181011906388</v>
+        <v>62.31644247555465</v>
       </c>
       <c r="C29" t="n">
-        <v>132.9155944341603</v>
+        <v>22.37289868520194</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>61.7282964134283</v>
+        <v>62.44304949078827</v>
       </c>
       <c r="C30" t="n">
-        <v>138.0023960907695</v>
+        <v>22.94119909625795</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>63.8523855869402</v>
+        <v>64.88795701797191</v>
       </c>
       <c r="C31" t="n">
-        <v>143.5770735685795</v>
+        <v>23.59446120042404</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>65.44530598441028</v>
+        <v>65.08437267076951</v>
       </c>
       <c r="C32" t="n">
-        <v>148.147517833615</v>
+        <v>24.59578597423474</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>67.45003900296102</v>
+        <v>68.86586574388853</v>
       </c>
       <c r="C33" t="n">
-        <v>153.182607673971</v>
+        <v>25.11423832814771</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>68.00075837913644</v>
+        <v>69.70216695675539</v>
       </c>
       <c r="C34" t="n">
-        <v>158.0480900594667</v>
+        <v>26.14155177784091</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>69.49083644724527</v>
+        <v>69.79535098445156</v>
       </c>
       <c r="C35" t="n">
-        <v>163.2072512664923</v>
+        <v>26.87292741403455</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>70.95331994097069</v>
+        <v>70.45759044980939</v>
       </c>
       <c r="C36" t="n">
-        <v>167.5696379756545</v>
+        <v>27.63973466582038</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>75.04898280497881</v>
+        <v>70.59504811641017</v>
       </c>
       <c r="C37" t="n">
-        <v>171.9943643225306</v>
+        <v>28.67482152301453</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>76.58822459432248</v>
+        <v>73.7493645851842</v>
       </c>
       <c r="C38" t="n">
-        <v>176.7170927564436</v>
+        <v>29.57772640018024</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>77.75652873905118</v>
+        <v>74.84085334728266</v>
       </c>
       <c r="C39" t="n">
-        <v>181.0984505884909</v>
+        <v>30.43066485844317</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>79.20554832061434</v>
+        <v>77.29061552584668</v>
       </c>
       <c r="C40" t="n">
-        <v>186.2906423220012</v>
+        <v>31.04249034196802</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>81.03284219207025</v>
+        <v>77.53481435264875</v>
       </c>
       <c r="C41" t="n">
-        <v>190.7788107203198</v>
+        <v>31.96554655960691</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>84.90539206251898</v>
+        <v>86.45128086456569</v>
       </c>
       <c r="C42" t="n">
-        <v>195.2630206960777</v>
+        <v>32.54456371191696</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>86.71612158166946</v>
+        <v>86.51931084564436</v>
       </c>
       <c r="C43" t="n">
-        <v>200.4345129415591</v>
+        <v>33.2505875237318</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>88.68404378148973</v>
+        <v>86.69619166932952</v>
       </c>
       <c r="C44" t="n">
-        <v>204.5841915469377</v>
+        <v>33.93648194340026</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>90.47332382459747</v>
+        <v>88.20553994916419</v>
       </c>
       <c r="C45" t="n">
-        <v>209.3229025052789</v>
+        <v>34.94953567365734</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>92.33883890439468</v>
+        <v>88.40445056698064</v>
       </c>
       <c r="C46" t="n">
-        <v>214.1152961613496</v>
+        <v>35.81970242931871</v>
       </c>
     </row>
     <row r="47">
@@ -945,43 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>93.56328901680374</v>
+        <v>98.16248239278272</v>
       </c>
       <c r="C47" t="n">
-        <v>218.7261134770973</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>95.41387817351593</v>
-      </c>
-      <c r="C48" t="n">
-        <v>223.3591126549224</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>97.5294664803647</v>
-      </c>
-      <c r="C49" t="n">
-        <v>227.9417716309137</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>98.95806341297596</v>
-      </c>
-      <c r="C50" t="n">
-        <v>232.7475645239182</v>
+        <v>36.60243725342756</v>
       </c>
     </row>
   </sheetData>
